--- a/data/GreeningGenes.xlsx
+++ b/data/GreeningGenes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliftonbdemesquita/Documents/GitHub/AussieStrains/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9075A3D-D42B-8E4F-93D3-11D35821B124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401E6056-C23D-6348-A70A-049030693F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17300" yWindow="500" windowWidth="18560" windowHeight="20740" xr2:uid="{17378546-83AE-144E-A72C-EAAAA792D0EA}"/>
+    <workbookView xWindow="17280" yWindow="500" windowWidth="18560" windowHeight="20740" xr2:uid="{17378546-83AE-144E-A72C-EAAAA792D0EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="160">
   <si>
     <t>Acetyl_CoA_synthase_AcsB_99.fasta</t>
   </si>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C469679A-DC65-5646-9373-FB62EBF54BF3}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,7 +986,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B8" t="s">
         <v>106</v>
       </c>
@@ -1006,7 +1008,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B10" t="s">
         <v>105</v>
       </c>
@@ -1167,11 +1171,23 @@
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -1196,7 +1212,9 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B28" t="s">
         <v>127</v>
       </c>
@@ -1230,10 +1248,19 @@
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="20" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
       </c>
       <c r="C32" t="s">
         <v>111</v>
